--- a/DBFieldsDataType/Sequencing_report.xlsx
+++ b/DBFieldsDataType/Sequencing_report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labkey_DataReleases_V10\DBFieldsDataType\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\DBFieldsDataType\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE72EAE-C6AB-4EBA-8C96-4C7147C57596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
-  <si>
-    <t>key</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>integer</t>
   </si>
@@ -35,18 +33,9 @@
     <t>participant_id</t>
   </si>
   <si>
-    <t>lab_sample_id</t>
-  </si>
-  <si>
-    <t>plate_key</t>
-  </si>
-  <si>
     <t>character varying</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>delivery_id</t>
   </si>
   <si>
@@ -69,12 +58,27 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>platekey</t>
+  </si>
+  <si>
+    <t>referral_id</t>
+  </si>
+  <si>
+    <t>associated_interpretation_request_id</t>
+  </si>
+  <si>
+    <t>data_format</t>
+  </si>
+  <si>
+    <t>delivery_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,105 +435,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
